--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="5040" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="51220" yWindow="5040" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Tweet</t>
   </si>
@@ -151,6 +151,192 @@
   </si>
   <si>
     <t>https://omarinthehouse.com/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Devastated by the terrible tragedy in Florida today. My heart is with the victims, students, teachers, parents and families impacted by this senseless violence. Grateful to all the first responders for your courageous efforts stepping in to help those in need.&lt;/p&gt;&amp;mdash; Darrell Issa (@DarrellIssa) &lt;a href="https://twitter.com/DarrellIssa/status/963961763510280192?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Darrell Issa</t>
+  </si>
+  <si>
+    <t>CA-49 US House, S California, OC, San Diego</t>
+  </si>
+  <si>
+    <t>Mike Levin</t>
+  </si>
+  <si>
+    <t>https://mikelevin.org/</t>
+  </si>
+  <si>
+    <t>MikeLevinCA</t>
+  </si>
+  <si>
+    <t>Doug Applegate</t>
+  </si>
+  <si>
+    <t>http://www.applegateforcongress.com/</t>
+  </si>
+  <si>
+    <t>ApplegateCA49</t>
+  </si>
+  <si>
+    <t>Sara Jacobs</t>
+  </si>
+  <si>
+    <t>https://sarajacobsforca.com/</t>
+  </si>
+  <si>
+    <t>SaraJacobsCA</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;As details start to emerge out of FL, our hearts are with those affected by this tragedy. Tonight communities across the US stand together with residents of Parkland and the brave first responders in that community.&lt;/p&gt;&amp;mdash; Rep. Mike Coffman (@RepMikeCoffman) &lt;a href="https://twitter.com/RepMikeCoffman/status/963946143792226305?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Mike Coffman</t>
+  </si>
+  <si>
+    <t>https://jasoncrowforcongress.com</t>
+  </si>
+  <si>
+    <t>Jason Crow</t>
+  </si>
+  <si>
+    <t>JasonCrowCO6</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="und" dir="ltr"&gt;&lt;a href="https://t.co/ucKdra1SGZ"&gt;pic.twitter.com/ucKdra1SGZ&lt;/a&gt;&lt;/p&gt;&amp;mdash; Congressman Rod Blum (@RepRodBlum) &lt;a href="https://twitter.com/RepRodBlum/status/964180167278153728?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Rod Blum</t>
+  </si>
+  <si>
+    <t>IA-01 US House, NE Iowa</t>
+  </si>
+  <si>
+    <t>Abby Finkenauer</t>
+  </si>
+  <si>
+    <t>https://www.abbyfinkenauer.com/</t>
+  </si>
+  <si>
+    <t>Abby4Iowa</t>
+  </si>
+  <si>
+    <t>Thomas Heckroth</t>
+  </si>
+  <si>
+    <t>HeckrothForIowa</t>
+  </si>
+  <si>
+    <t>https://thomasheckroth.com/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;It’s so hard to make sense of the absolute tragedy that happened in &lt;a href="https://twitter.com/hashtag/Parkland?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Parkland&lt;/a&gt; today.  Schools should be safe, not dangerous places for our kids. &lt;a href="https://twitter.com/hashtag/Mn02?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Mn02&lt;/a&gt;&lt;/p&gt;&amp;mdash; Jason Lewis (@RepJasonLewis) &lt;a href="https://twitter.com/RepJasonLewis/status/963915647808954368?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Jason Lewis</t>
+  </si>
+  <si>
+    <t>CO-06 US House, Denver suburbs</t>
+  </si>
+  <si>
+    <t>MN-02 US House, S Minneapolis suburbs</t>
+  </si>
+  <si>
+    <t>Angie Craig</t>
+  </si>
+  <si>
+    <t>https://www.angiecraig.com/</t>
+  </si>
+  <si>
+    <t>AngieCraigMN</t>
+  </si>
+  <si>
+    <t>ErdmannCD2</t>
+  </si>
+  <si>
+    <t>Jeff Erdmannhttps://erdmannforcongress.com/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;I&amp;#39;m heartbroken about today’s shooting at a Florida High School and send my condolences and prayers to the victims and families. I am very thankful for the actions of the first responders. We must enforce current laws that prohibit access to guns by those who should not have them&lt;/p&gt;&amp;mdash; Rep. Don Bacon (@RepDonBacon) &lt;a href="https://twitter.com/RepDonBacon/status/963898450868883456?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Don Bacon</t>
+  </si>
+  <si>
+    <t>NE-02 US House, Omaha, E Nebraska</t>
+  </si>
+  <si>
+    <t>Brad Ashford</t>
+  </si>
+  <si>
+    <t>Kara Eastman</t>
+  </si>
+  <si>
+    <t>http://eastmanforcongress.com/</t>
+  </si>
+  <si>
+    <t>http://bradashfordforcongress.com/</t>
+  </si>
+  <si>
+    <t>bradashford18</t>
+  </si>
+  <si>
+    <t>karaforcongress</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Today’s event in Parkland is tragic and I cannot imagine a more horrifying situation for a child to go through. Many families will never be the same. I am grateful for the first responders and my heart is with the whole community as we continue to seek answers.&lt;/p&gt;&amp;mdash; Rep. Will Hurd (@HurdOnTheHill) &lt;a href="https://twitter.com/HurdOnTheHill/status/963919101830844417?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Will Hurd</t>
+  </si>
+  <si>
+    <t>TX-23 US House, W Texas</t>
+  </si>
+  <si>
+    <t>Jay Hulings</t>
+  </si>
+  <si>
+    <t>Gina Ortiz Jones</t>
+  </si>
+  <si>
+    <t>https://jayhulings.com/</t>
+  </si>
+  <si>
+    <t>jayhulings</t>
+  </si>
+  <si>
+    <t>https://ginaortizjones.com</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ginaortizjones</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;We all stand with the Parkland, Florida community and pray for the victims and families impacted by this tragedy. We thank law enforcement, first responders, and medical personnel who heroically worked to save lives today.&lt;/p&gt;&amp;mdash; Barbara Comstock (@RepComstock) &lt;a href="https://twitter.com/RepComstock/status/963925456541110273?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>Barbara Comstock</t>
+  </si>
+  <si>
+    <t>VA-10 US House, N Virginia</t>
+  </si>
+  <si>
+    <t>Alison Friedman</t>
+  </si>
+  <si>
+    <t>https://alisonforvirginia.com/</t>
+  </si>
+  <si>
+    <t>AlisonforVA</t>
+  </si>
+  <si>
+    <t>Dan Helmer</t>
+  </si>
+  <si>
+    <t>HelmerVA10</t>
+  </si>
+  <si>
+    <t>https://www.helmerforcongress.com/</t>
   </si>
 </sst>
 </file>
@@ -513,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,11 +847,215 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
     <hyperlink ref="J4" r:id="rId3" display="https://twitter.com/OmarInTheHouse_"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="N5" r:id="rId5" display="https://twitter.com/SaraJacobsCA"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -673,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +1083,192 @@
         <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Today’s &lt;a href="https://twitter.com/hashtag/Parkland?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Parkland&lt;/a&gt; shooting was a tragedy. No parent should ever have to worry about their child’s safety as they head off to school.&lt;/p&gt;&amp;mdash; Martha McSally (@RepMcSally) &lt;a href="https://twitter.com/RepMcSally/status/963992283652685826?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;AZ-02 US House, SE Arizona&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://www.kirkpatrickforcongress.com/'&gt;Ann Kirkpatrick&lt;/a&gt; &lt;a href='https://twitter.com/ann_kirkpatrick'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='https://www.heinzforarizona.com/'&gt;Matt Heinz&lt;/a&gt; &lt;a href='https://twitter.com/mattheinzmd'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C4&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E4&amp;"'&gt;"&amp;Input!D4&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F4),""," &lt;a href='https://twitter.com/"&amp;Input!F4&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H4),"","&lt;a href='"&amp;Input!I4&amp;"'&gt;"&amp;Input!H4&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J4),""," &lt;a href='https://twitter.com/"&amp;Input!J4&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Wise words from &lt;a href="https://twitter.com/POTUS?ref_src=twsrc%5Etfw"&gt;@POTUS&lt;/a&gt; in the wake of the awful school shooting in Florida. We grieve with those who have lost loved ones in this tragedy. &lt;a href="https://t.co/7fixTu2CSe"&gt;https://t.co/7fixTu2CSe&lt;/a&gt;&lt;/p&gt;&amp;mdash; Dana Rohrabacher (@RepRohrabacher) &lt;a href="https://twitter.com/RepRohrabacher/status/964211946710097920?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;CA-48 US House, S California, OC Coast&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://www.harleyforcongress.com/'&gt;Harley Rouda&lt;/a&gt; &lt;a href='https://twitter.com/HarleyRouda'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='https://omarinthehouse.com/'&gt;Omar Siddiqui&lt;/a&gt; &lt;a href='https://twitter.com/OmarInTheHouse_'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C5&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E5&amp;"'&gt;"&amp;Input!D5&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F5),""," &lt;a href='https://twitter.com/"&amp;Input!F5&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H5),"","&lt;a href='"&amp;Input!I5&amp;"'&gt;"&amp;Input!H5&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J5),""," &lt;a href='https://twitter.com/"&amp;Input!J5&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Devastated by the terrible tragedy in Florida today. My heart is with the victims, students, teachers, parents and families impacted by this senseless violence. Grateful to all the first responders for your courageous efforts stepping in to help those in need.&lt;/p&gt;&amp;mdash; Darrell Issa (@DarrellIssa) &lt;a href="https://twitter.com/DarrellIssa/status/963961763510280192?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;CA-49 US House, S California, OC, San Diego&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://mikelevin.org/'&gt;Mike Levin&lt;/a&gt; &lt;a href='https://twitter.com/MikeLevinCA'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='http://www.applegateforcongress.com/'&gt;Doug Applegate&lt;/a&gt; &lt;a href='https://twitter.com/ApplegateCA49'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C6&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E6&amp;"'&gt;"&amp;Input!D6&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F6),""," &lt;a href='https://twitter.com/"&amp;Input!F6&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H6),"","&lt;a href='"&amp;Input!I6&amp;"'&gt;"&amp;Input!H6&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J6),""," &lt;a href='https://twitter.com/"&amp;Input!J6&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;As details start to emerge out of FL, our hearts are with those affected by this tragedy. Tonight communities across the US stand together with residents of Parkland and the brave first responders in that community.&lt;/p&gt;&amp;mdash; Rep. Mike Coffman (@RepMikeCoffman) &lt;a href="https://twitter.com/RepMikeCoffman/status/963946143792226305?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;CO-06 US House, Denver suburbs&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://jasoncrowforcongress.com'&gt;Jason Crow&lt;/a&gt; &lt;a href='https://twitter.com/JasonCrowCO6'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A7&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C7&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E7&amp;"'&gt;"&amp;Input!D7&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F7),""," &lt;a href='https://twitter.com/"&amp;Input!F7&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H7),"","&lt;a href='"&amp;Input!I7&amp;"'&gt;"&amp;Input!H7&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J7),""," &lt;a href='https://twitter.com/"&amp;Input!J7&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="und" dir="ltr"&gt;&lt;a href="https://t.co/ucKdra1SGZ"&gt;pic.twitter.com/ucKdra1SGZ&lt;/a&gt;&lt;/p&gt;&amp;mdash; Congressman Rod Blum (@RepRodBlum) &lt;a href="https://twitter.com/RepRodBlum/status/964180167278153728?ref_src=twsrc%5Etfw"&gt;February 15, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;IA-01 US House, NE Iowa&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://www.abbyfinkenauer.com/'&gt;Abby Finkenauer&lt;/a&gt; &lt;a href='https://twitter.com/Abby4Iowa'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='https://thomasheckroth.com/'&gt;Thomas Heckroth&lt;/a&gt; &lt;a href='https://twitter.com/HeckrothForIowa'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A8&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C8&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E8&amp;"'&gt;"&amp;Input!D8&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F8),""," &lt;a href='https://twitter.com/"&amp;Input!F8&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H8),"","&lt;a href='"&amp;Input!I8&amp;"'&gt;"&amp;Input!H8&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J8),""," &lt;a href='https://twitter.com/"&amp;Input!J8&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;It’s so hard to make sense of the absolute tragedy that happened in &lt;a href="https://twitter.com/hashtag/Parkland?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Parkland&lt;/a&gt; today.  Schools should be safe, not dangerous places for our kids. &lt;a href="https://twitter.com/hashtag/Mn02?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Mn02&lt;/a&gt;&lt;/p&gt;&amp;mdash; Jason Lewis (@RepJasonLewis) &lt;a href="https://twitter.com/RepJasonLewis/status/963915647808954368?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;MN-02 US House, S Minneapolis suburbs&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://www.angiecraig.com/'&gt;Angie Craig&lt;/a&gt; &lt;a href='https://twitter.com/AngieCraigMN'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href=''&gt;Jeff Erdmannhttps://erdmannforcongress.com/&lt;/a&gt; &lt;a href='https://twitter.com/ErdmannCD2'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A9&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C9&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E9&amp;"'&gt;"&amp;Input!D9&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F9),""," &lt;a href='https://twitter.com/"&amp;Input!F9&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H9),"","&lt;a href='"&amp;Input!I9&amp;"'&gt;"&amp;Input!H9&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J9),""," &lt;a href='https://twitter.com/"&amp;Input!J9&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;I&amp;#39;m heartbroken about today’s shooting at a Florida High School and send my condolences and prayers to the victims and families. I am very thankful for the actions of the first responders. We must enforce current laws that prohibit access to guns by those who should not have them&lt;/p&gt;&amp;mdash; Rep. Don Bacon (@RepDonBacon) &lt;a href="https://twitter.com/RepDonBacon/status/963898450868883456?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;NE-02 US House, Omaha, E Nebraska&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='http://bradashfordforcongress.com/'&gt;Brad Ashford&lt;/a&gt; &lt;a href='https://twitter.com/bradashford18'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='http://eastmanforcongress.com/'&gt;Kara Eastman&lt;/a&gt; &lt;a href='https://twitter.com/karaforcongress'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A10&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C10&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E10&amp;"'&gt;"&amp;Input!D10&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F10),""," &lt;a href='https://twitter.com/"&amp;Input!F10&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H10),"","&lt;a href='"&amp;Input!I10&amp;"'&gt;"&amp;Input!H10&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J10),""," &lt;a href='https://twitter.com/"&amp;Input!J10&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Today’s event in Parkland is tragic and I cannot imagine a more horrifying situation for a child to go through. Many families will never be the same. I am grateful for the first responders and my heart is with the whole community as we continue to seek answers.&lt;/p&gt;&amp;mdash; Rep. Will Hurd (@HurdOnTheHill) &lt;a href="https://twitter.com/HurdOnTheHill/status/963919101830844417?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;TX-23 US House, W Texas&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://jayhulings.com/'&gt;Jay Hulings&lt;/a&gt; &lt;a href='https://twitter.com/jayhulings'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='https://ginaortizjones.com'&gt;Gina Ortiz Jones&lt;/a&gt; &lt;a href='https://twitter.com/https://twitter.com/ginaortizjones'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A11&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C11&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E11&amp;"'&gt;"&amp;Input!D11&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F11),""," &lt;a href='https://twitter.com/"&amp;Input!F11&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H11),"","&lt;a href='"&amp;Input!I11&amp;"'&gt;"&amp;Input!H11&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J11),""," &lt;a href='https://twitter.com/"&amp;Input!J11&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;We all stand with the Parkland, Florida community and pray for the victims and families impacted by this tragedy. We thank law enforcement, first responders, and medical personnel who heroically worked to save lives today.&lt;/p&gt;&amp;mdash; Barbara Comstock (@RepComstock) &lt;a href="https://twitter.com/RepComstock/status/963925456541110273?ref_src=twsrc%5Etfw"&gt;February 14, 2018&lt;/a&gt;&lt;/blockquote&gt;&lt;/td&gt;&lt;td&gt;VA-10 US House, N Virginia&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='https://alisonforvirginia.com/'&gt;Alison Friedman&lt;/a&gt; &lt;a href='https://twitter.com/AlisonforVA'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;a href='https://www.helmerforcongress.com/'&gt;Dan Helmer&lt;/a&gt; &lt;a href='https://twitter.com/HelmerVA10'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="e">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!#REF!&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!#REF!&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!#REF!&amp;"'&gt;"&amp;Input!#REF!&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!#REF!),""," &lt;a href='https://twitter.com/"&amp;Input!#REF!&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!#REF!),"","&lt;a href='"&amp;Input!#REF!&amp;"'&gt;"&amp;Input!#REF!&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!#REF!),""," &lt;a href='https://twitter.com/"&amp;Input!#REF!&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A12&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C12&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E12&amp;"'&gt;"&amp;Input!D12&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F12),""," &lt;a href='https://twitter.com/"&amp;Input!F12&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H12),"","&lt;a href='"&amp;Input!I12&amp;"'&gt;"&amp;Input!H12&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J12),""," &lt;a href='https://twitter.com/"&amp;Input!J12&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C13&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E13&amp;"'&gt;"&amp;Input!D13&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F13),""," &lt;a href='https://twitter.com/"&amp;Input!F13&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H13),"","&lt;a href='"&amp;Input!I13&amp;"'&gt;"&amp;Input!H13&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J13),""," &lt;a href='https://twitter.com/"&amp;Input!J13&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A14&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C14&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E14&amp;"'&gt;"&amp;Input!D14&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F14),""," &lt;a href='https://twitter.com/"&amp;Input!F14&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H14),"","&lt;a href='"&amp;Input!I14&amp;"'&gt;"&amp;Input!H14&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J14),""," &lt;a href='https://twitter.com/"&amp;Input!J14&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A15&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C15&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E15&amp;"'&gt;"&amp;Input!D15&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F15),""," &lt;a href='https://twitter.com/"&amp;Input!F15&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H15),"","&lt;a href='"&amp;Input!I15&amp;"'&gt;"&amp;Input!H15&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J15),""," &lt;a href='https://twitter.com/"&amp;Input!J15&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A16&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C16&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E16&amp;"'&gt;"&amp;Input!D16&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F16),""," &lt;a href='https://twitter.com/"&amp;Input!F16&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H16),"","&lt;a href='"&amp;Input!I16&amp;"'&gt;"&amp;Input!H16&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J16),""," &lt;a href='https://twitter.com/"&amp;Input!J16&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A17&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C17&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E17&amp;"'&gt;"&amp;Input!D17&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F17),""," &lt;a href='https://twitter.com/"&amp;Input!F17&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H17),"","&lt;a href='"&amp;Input!I17&amp;"'&gt;"&amp;Input!H17&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J17),""," &lt;a href='https://twitter.com/"&amp;Input!J17&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A18&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C18&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E18&amp;"'&gt;"&amp;Input!D18&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F18),""," &lt;a href='https://twitter.com/"&amp;Input!F18&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H18),"","&lt;a href='"&amp;Input!I18&amp;"'&gt;"&amp;Input!H18&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J18),""," &lt;a href='https://twitter.com/"&amp;Input!J18&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A19&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C19&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E19&amp;"'&gt;"&amp;Input!D19&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F19),""," &lt;a href='https://twitter.com/"&amp;Input!F19&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H19),"","&lt;a href='"&amp;Input!I19&amp;"'&gt;"&amp;Input!H19&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J19),""," &lt;a href='https://twitter.com/"&amp;Input!J19&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A20&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C20&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E20&amp;"'&gt;"&amp;Input!D20&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F20),""," &lt;a href='https://twitter.com/"&amp;Input!F20&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H20),"","&lt;a href='"&amp;Input!I20&amp;"'&gt;"&amp;Input!H20&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J20),""," &lt;a href='https://twitter.com/"&amp;Input!J20&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A21&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C21&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E21&amp;"'&gt;"&amp;Input!D21&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F21),""," &lt;a href='https://twitter.com/"&amp;Input!F21&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H21),"","&lt;a href='"&amp;Input!I21&amp;"'&gt;"&amp;Input!H21&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J21),""," &lt;a href='https://twitter.com/"&amp;Input!J21&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A22&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C22&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E22&amp;"'&gt;"&amp;Input!D22&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F22),""," &lt;a href='https://twitter.com/"&amp;Input!F22&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H22),"","&lt;a href='"&amp;Input!I22&amp;"'&gt;"&amp;Input!H22&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J22),""," &lt;a href='https://twitter.com/"&amp;Input!J22&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A23&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C23&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E23&amp;"'&gt;"&amp;Input!D23&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F23),""," &lt;a href='https://twitter.com/"&amp;Input!F23&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H23),"","&lt;a href='"&amp;Input!I23&amp;"'&gt;"&amp;Input!H23&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J23),""," &lt;a href='https://twitter.com/"&amp;Input!J23&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A24&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C24&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E24&amp;"'&gt;"&amp;Input!D24&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F24),""," &lt;a href='https://twitter.com/"&amp;Input!F24&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H24),"","&lt;a href='"&amp;Input!I24&amp;"'&gt;"&amp;Input!H24&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J24),""," &lt;a href='https://twitter.com/"&amp;Input!J24&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A25&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C25&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E25&amp;"'&gt;"&amp;Input!D25&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F25),""," &lt;a href='https://twitter.com/"&amp;Input!F25&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H25),"","&lt;a href='"&amp;Input!I25&amp;"'&gt;"&amp;Input!H25&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J25),""," &lt;a href='https://twitter.com/"&amp;Input!J25&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A26&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C26&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E26&amp;"'&gt;"&amp;Input!D26&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F26),""," &lt;a href='https://twitter.com/"&amp;Input!F26&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H26),"","&lt;a href='"&amp;Input!I26&amp;"'&gt;"&amp;Input!H26&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J26),""," &lt;a href='https://twitter.com/"&amp;Input!J26&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A27&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C27&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E27&amp;"'&gt;"&amp;Input!D27&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F27),""," &lt;a href='https://twitter.com/"&amp;Input!F27&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H27),"","&lt;a href='"&amp;Input!I27&amp;"'&gt;"&amp;Input!H27&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J27),""," &lt;a href='https://twitter.com/"&amp;Input!J27&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A28&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C28&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E28&amp;"'&gt;"&amp;Input!D28&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F28),""," &lt;a href='https://twitter.com/"&amp;Input!F28&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H28),"","&lt;a href='"&amp;Input!I28&amp;"'&gt;"&amp;Input!H28&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J28),""," &lt;a href='https://twitter.com/"&amp;Input!J28&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A29&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C29&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E29&amp;"'&gt;"&amp;Input!D29&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F29),""," &lt;a href='https://twitter.com/"&amp;Input!F29&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H29),"","&lt;a href='"&amp;Input!I29&amp;"'&gt;"&amp;Input!H29&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J29),""," &lt;a href='https://twitter.com/"&amp;Input!J29&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A30&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C30&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E30&amp;"'&gt;"&amp;Input!D30&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F30),""," &lt;a href='https://twitter.com/"&amp;Input!F30&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H30),"","&lt;a href='"&amp;Input!I30&amp;"'&gt;"&amp;Input!H30&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J30),""," &lt;a href='https://twitter.com/"&amp;Input!J30&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A31&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C31&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E31&amp;"'&gt;"&amp;Input!D31&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F31),""," &lt;a href='https://twitter.com/"&amp;Input!F31&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H31),"","&lt;a href='"&amp;Input!I31&amp;"'&gt;"&amp;Input!H31&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J31),""," &lt;a href='https://twitter.com/"&amp;Input!J31&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A32&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C32&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E32&amp;"'&gt;"&amp;Input!D32&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F32),""," &lt;a href='https://twitter.com/"&amp;Input!F32&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H32),"","&lt;a href='"&amp;Input!I32&amp;"'&gt;"&amp;Input!H32&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J32),""," &lt;a href='https://twitter.com/"&amp;Input!J32&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>"&lt;tr&gt;&lt;td style='max-width: 500px'&gt;"&amp;Input!A33&amp;"&lt;/td&gt;&lt;td&gt;"&amp;Input!C33&amp;"&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href='"&amp;Input!E33&amp;"'&gt;"&amp;Input!D33&amp;"&lt;/a&gt;"&amp;IF(ISBLANK(Input!F33),""," &lt;a href='https://twitter.com/"&amp;Input!F33&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;IF(ISBLANK(Input!H33),"","&lt;a href='"&amp;Input!I33&amp;"'&gt;"&amp;Input!H33&amp;"&lt;/a&gt;")&amp;IF(ISBLANK(Input!J33),""," &lt;a href='https://twitter.com/"&amp;Input!J33&amp;"'&gt;&lt;i class='fab fa-twitter-square'&gt;&lt;/i&gt;&lt;/a&gt;")&amp;"&lt;br /&gt;"&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td style='max-width: 500px'&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td class='donate'&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
